--- a/results/VSD/source_data/test_results_source_dataset-formatted-Word.xlsx
+++ b/results/VSD/source_data/test_results_source_dataset-formatted-Word.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnicholson/Documents/repos/coding/l2m/Nicholson-Prinz-2021/results/VSD/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{29F77A8D-2EA3-D948-816E-0EC49903163E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FD035-A945-FA41-9714-369C09EBBE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36100" yWindow="2620" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="45100" yWindow="-1580" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_results_source_dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>transfer</t>
   </si>
@@ -43,9 +43,6 @@
     <t>AlexNet</t>
   </si>
   <si>
-    <t>Network</t>
-  </si>
-  <si>
     <t>Training
 method</t>
   </si>
@@ -58,15 +55,24 @@
  (largest
 object)</t>
   </si>
+  <si>
+    <t>DNN
+architecture</t>
+  </si>
+  <si>
+    <t>Accuracy
+(largest object)
+(mean (S. D.))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,8 +207,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +394,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -498,6 +516,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +572,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,6 +581,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="13" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -599,7 +632,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,13 +648,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Training_x000a_method"/>
-    <tableColumn id="2" name="Source_x000a_dataset"/>
-    <tableColumn id="3" name="Network"/>
-    <tableColumn id="4" name="Accuracy _x000a_ (largest_x000a_object)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Training_x000a_method"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Source_x000a_dataset"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DNN_x000a_architecture"/>
+    <tableColumn id="5" xr3:uid="{FD6F8F70-C7B7-D84E-A20F-52968831320C}" name="Accuracy_x000a_(largest object)_x000a_(mean (S. D.))" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT(TEXT(E2, "0.000")," ",TEXT(F2,"(0.000)"))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -923,63 +958,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.20821823204419801</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D7" si="0">_xlfn.CONCAT(TEXT(E2, "0.000")," ",TEXT(F2,"(0.000)"))</f>
+        <v>0.786 (0.007)</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.78578211325966796</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6.9648679049899203E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.26204247237569001</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.652 (0.010)</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.65150207182320397</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.01711940581802E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -987,13 +1044,20 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.35255524861878401</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.390 (0.010)</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.390279696132596</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9.5955607276084001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1001,41 +1065,63 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.390279696132596</v>
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.353 (0.060)</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.35255524861878401</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6.0057068822258503E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.65150207182320397</v>
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.262 (0.004)</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.26204247237569001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.32246008492548E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.78578211325966796</v>
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.208 (0.000)</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.20821823204419801</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
